--- a/RotondAndes/docs/Iteracion 3/datos requeridos.xlsx
+++ b/RotondAndes/docs/Iteracion 3/datos requeridos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IVAN\J\Sistrans\RotondAndes\docs\Iteracion 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>rquerimiento</t>
   </si>
@@ -63,6 +58,18 @@
   </si>
   <si>
     <t>requerimiento no funcional</t>
+  </si>
+  <si>
+    <t>id restaurenta</t>
+  </si>
+  <si>
+    <t>ID-item1</t>
+  </si>
+  <si>
+    <t>id_items 2</t>
+  </si>
+  <si>
+    <t>id_mesa</t>
   </si>
 </sst>
 </file>
@@ -184,21 +191,21 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -258,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,36 +485,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -518,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -529,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -540,28 +548,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -572,25 +590,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -601,12 +619,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
